--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -48,20 +48,20 @@
     <t>kopi_indo</t>
   </si>
   <si>
-    <t>yugeWIGBJAFYRGUIHG3K5H</t>
-  </si>
-  <si>
     <t>v60.jpg</t>
   </si>
   <si>
-    <t>ihoshgoiehgw</t>
+    <t>Kopi green tea</t>
+  </si>
+  <si>
+    <t>kopi rasa rindu dengan mantan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +72,13 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -98,20 +105,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -120,28 +121,164 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -158,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G14" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:G14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G2" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Nama" dataDxfId="7"/>
     <tableColumn id="2" name="Tipe" dataDxfId="6"/>
@@ -460,20 +597,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="74.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -500,9 +637,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -517,125 +654,18 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -19,49 +19,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="18">
+  <si>
+    <t>Susu Bendera</t>
+  </si>
+  <si>
+    <t>(contoh)</t>
+  </si>
+  <si>
+    <t>Keterangan:</t>
+  </si>
   <si>
     <t>Nama</t>
   </si>
   <si>
+    <t>Tipe</t>
+  </si>
+  <si>
+    <t>Harga</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Deskripsi</t>
+  </si>
+  <si>
+    <t>Gambar</t>
+  </si>
+  <si>
     <t>Kopi</t>
   </si>
   <si>
-    <t>Tipe</t>
-  </si>
-  <si>
-    <t>Harga</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>Desksipri</t>
-  </si>
-  <si>
-    <t>Gambar</t>
-  </si>
-  <si>
     <t>kopi_indo</t>
   </si>
   <si>
+    <t>dfntyddvsvdhbfjngkmkufbdvssvdbnjfkg</t>
+  </si>
+  <si>
     <t>v60.jpg</t>
   </si>
   <si>
-    <t>Kopi green tea</t>
-  </si>
-  <si>
-    <t>kopi rasa rindu dengan mantan</t>
+    <t>(O)minimal upload menggunakan import bebas</t>
+  </si>
+  <si>
+    <t>(O)Semua kolom harus terisi</t>
+  </si>
+  <si>
+    <t>(O)perhatikan baris berwarna dan putih</t>
+  </si>
+  <si>
+    <t>apabila banyak file yang di upload, drag baris sesuai dengan banyaknya data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +90,6 @@
     <font>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -105,181 +116,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="2">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -295,16 +145,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G2" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G21" totalsRowShown="0">
+  <autoFilter ref="A1:G21"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nama" dataDxfId="7"/>
-    <tableColumn id="2" name="Tipe" dataDxfId="6"/>
-    <tableColumn id="3" name="Harga" dataDxfId="5"/>
-    <tableColumn id="4" name="Stock" dataDxfId="4"/>
-    <tableColumn id="5" name="Tag" dataDxfId="3"/>
-    <tableColumn id="6" name="Desksipri" dataDxfId="2"/>
-    <tableColumn id="7" name="Gambar" dataDxfId="1"/>
+    <tableColumn id="1" name="Nama"/>
+    <tableColumn id="2" name="Tipe"/>
+    <tableColumn id="3" name="Harga"/>
+    <tableColumn id="4" name="Stock" dataDxfId="1"/>
+    <tableColumn id="5" name="Tag" dataDxfId="0"/>
+    <tableColumn id="6" name="Deskripsi"/>
+    <tableColumn id="7" name="Gambar"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -597,75 +447,528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="74.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>15000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>15000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>15000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>15000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>15000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="4">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>15000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>15000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>15000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>15000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>15000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>15000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>15000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>15000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>15000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>15000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>15000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>15000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>15000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>15000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>15000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>